--- a/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -169,7 +169,7 @@
     <t>FRLMVaccination.vaccin</t>
   </si>
   <si>
-    <t>FRCDAVaccination.consumable.FRCDAProduitDeSante</t>
+    <t>FRCDAVaccination.consumable:FRCDAProduitDeSante</t>
   </si>
   <si>
     <t>FRLMVaccination.prescription</t>
@@ -229,7 +229,7 @@
     <t>FRImmunizationDocument.route</t>
   </si>
   <si>
-    <t>FRCDAVaccination.consumable:FRCDAProduitDeSante</t>
+    <t>FRImmunizationDocument.doseQuantity</t>
   </si>
   <si>
     <t>FRImmunizationDocument.vaccineCode</t>
@@ -744,7 +744,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,81 +890,94 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRImmunizationLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
